--- a/dataset_input/efeito_estufa.xlsx
+++ b/dataset_input/efeito_estufa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Work\Documents\Aulas2023_24\sem2\BD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Work\Documents\Aulas2023_24\sem2\BD\BigData\dataset_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FAD7BC-EE67-449B-B63C-D36E5F8073A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1635427A-FF78-4C58-9619-88BA8B099ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="1344" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quadro" sheetId="1" r:id="rId1"/>
@@ -35,12 +35,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Das atividades económicas</t>
-  </si>
-  <si>
-    <t>Das famílias</t>
-  </si>
-  <si>
     <t>Dados obtidos em https:www.pordata.pt a 22-02-2024</t>
   </si>
   <si>
@@ -170,6 +164,12 @@
   <si>
     <t>Emissões de dióxido de carbono de origem fóssil + (Emissões de óxido nitroso * 310) + (Emissões de metano * 21)</t>
   </si>
+  <si>
+    <t>Total das atividades economicas</t>
+  </si>
+  <si>
+    <t>Total das famílias</t>
+  </si>
 </sst>
 </file>
 
@@ -178,7 +178,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\ ##,##0.0;\ \-##,##0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -223,6 +223,24 @@
       <sz val="10"/>
       <color indexed="14"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -385,7 +403,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -396,61 +414,66 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="2" xfId="3" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="2">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="2" xfId="4" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="2" xfId="3" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="2">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="2" xfId="4" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,9 +657,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -674,7 +697,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -780,7 +803,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -922,7 +945,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -930,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -941,410 +964,412 @@
     <col min="1" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1995</v>
+      </c>
+      <c r="B2" s="9">
+        <v>70470.100000000006</v>
+      </c>
+      <c r="C2" s="9">
+        <v>61032</v>
+      </c>
+      <c r="D2" s="9">
+        <v>9438.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>1996</v>
+      </c>
+      <c r="B3" s="11">
+        <v>68293.3</v>
+      </c>
+      <c r="C3" s="11">
+        <v>58328.4</v>
+      </c>
+      <c r="D3" s="11">
+        <v>9964.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>1997</v>
+      </c>
+      <c r="B4" s="9">
+        <v>71402.600000000006</v>
+      </c>
+      <c r="C4" s="9">
+        <v>61332</v>
+      </c>
+      <c r="D4" s="9">
+        <v>10070.6</v>
+      </c>
+      <c r="H4" s="25"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>1998</v>
+      </c>
+      <c r="B5" s="11">
+        <v>76265.899999999994</v>
+      </c>
+      <c r="C5" s="11">
+        <v>65634.899999999994</v>
+      </c>
+      <c r="D5" s="11">
+        <v>10631</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>1999</v>
+      </c>
+      <c r="B6" s="9">
+        <v>84465</v>
+      </c>
+      <c r="C6" s="9">
+        <v>73346</v>
+      </c>
+      <c r="D6" s="9">
+        <v>11119</v>
+      </c>
+      <c r="H6" s="23"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>2000</v>
+      </c>
+      <c r="B7" s="11">
+        <v>83691.100000000006</v>
+      </c>
+      <c r="C7" s="11">
+        <v>72187.7</v>
+      </c>
+      <c r="D7" s="11">
+        <v>11503.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>2001</v>
+      </c>
+      <c r="B8" s="9">
+        <v>83571</v>
+      </c>
+      <c r="C8" s="9">
+        <v>71847.7</v>
+      </c>
+      <c r="D8" s="9">
+        <v>11723.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>2002</v>
+      </c>
+      <c r="B9" s="11">
+        <v>87895.3</v>
+      </c>
+      <c r="C9" s="11">
+        <v>75788.600000000006</v>
+      </c>
+      <c r="D9" s="11">
+        <v>12106.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>2003</v>
+      </c>
+      <c r="B10" s="9">
+        <v>83113.3</v>
+      </c>
+      <c r="C10" s="9">
+        <v>71011.199999999997</v>
+      </c>
+      <c r="D10" s="9">
+        <v>12102.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>2004</v>
+      </c>
+      <c r="B11" s="11">
+        <v>86678.1</v>
+      </c>
+      <c r="C11" s="11">
+        <v>74536.800000000003</v>
+      </c>
+      <c r="D11" s="11">
+        <v>12141.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>2005</v>
+      </c>
+      <c r="B12" s="9">
+        <v>88914.4</v>
+      </c>
+      <c r="C12" s="9">
+        <v>76884.5</v>
+      </c>
+      <c r="D12" s="9">
+        <v>12029.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>2006</v>
+      </c>
+      <c r="B13" s="11">
+        <v>84339.5</v>
+      </c>
+      <c r="C13" s="11">
+        <v>72494.899999999994</v>
+      </c>
+      <c r="D13" s="11">
+        <v>11844.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>2007</v>
+      </c>
+      <c r="B14" s="9">
+        <v>82174.600000000006</v>
+      </c>
+      <c r="C14" s="9">
+        <v>70502.8</v>
+      </c>
+      <c r="D14" s="9">
+        <v>11671.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>2008</v>
+      </c>
+      <c r="B15" s="11">
+        <v>79970.8</v>
+      </c>
+      <c r="C15" s="11">
+        <v>68519.199999999997</v>
+      </c>
+      <c r="D15" s="11">
+        <v>11451.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>2009</v>
+      </c>
+      <c r="B16" s="9">
+        <v>76807.5</v>
+      </c>
+      <c r="C16" s="9">
+        <v>65293</v>
+      </c>
+      <c r="D16" s="9">
+        <v>11514.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>2010</v>
+      </c>
+      <c r="B17" s="11">
+        <v>72401.100000000006</v>
+      </c>
+      <c r="C17" s="11">
+        <v>60688.5</v>
+      </c>
+      <c r="D17" s="11">
+        <v>11712.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>2011</v>
+      </c>
+      <c r="B18" s="9">
+        <v>70971.5</v>
+      </c>
+      <c r="C18" s="9">
+        <v>60153.599999999999</v>
+      </c>
+      <c r="D18" s="9">
+        <v>10817.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>2012</v>
+      </c>
+      <c r="B19" s="11">
+        <v>69325.600000000006</v>
+      </c>
+      <c r="C19" s="11">
+        <v>59136.4</v>
+      </c>
+      <c r="D19" s="11">
+        <v>10189.200000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>2013</v>
+      </c>
+      <c r="B20" s="9">
+        <v>67273.100000000006</v>
+      </c>
+      <c r="C20" s="9">
+        <v>57236</v>
+      </c>
+      <c r="D20" s="9">
+        <v>10037.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>2014</v>
+      </c>
+      <c r="B21" s="11">
+        <v>67136.5</v>
+      </c>
+      <c r="C21" s="11">
+        <v>57136</v>
+      </c>
+      <c r="D21" s="11">
+        <v>10000.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>2015</v>
+      </c>
+      <c r="B22" s="9">
+        <v>71151</v>
+      </c>
+      <c r="C22" s="9">
+        <v>61224.3</v>
+      </c>
+      <c r="D22" s="9">
+        <v>9926.7000000000007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>2016</v>
+      </c>
+      <c r="B23" s="11">
+        <v>69060.600000000006</v>
+      </c>
+      <c r="C23" s="11">
+        <v>59015.4</v>
+      </c>
+      <c r="D23" s="11">
+        <v>10045.200000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>2017</v>
+      </c>
+      <c r="B24" s="9">
+        <v>74284.3</v>
+      </c>
+      <c r="C24" s="9">
+        <v>64166.7</v>
+      </c>
+      <c r="D24" s="9">
+        <v>10117.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B25" s="11">
+        <v>71091.7</v>
+      </c>
+      <c r="C25" s="11">
+        <v>60762.8</v>
+      </c>
+      <c r="D25" s="11">
+        <v>10328.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B26" s="9">
+        <v>67878.2</v>
+      </c>
+      <c r="C26" s="9">
+        <v>57044.4</v>
+      </c>
+      <c r="D26" s="9">
+        <v>10833.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B27" s="11">
+        <v>59475.5</v>
+      </c>
+      <c r="C27" s="11">
+        <v>49531.3</v>
+      </c>
+      <c r="D27" s="11">
+        <v>9944.2000000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B28" s="9">
+        <v>58550.3</v>
+      </c>
+      <c r="C28" s="9">
+        <v>48657</v>
+      </c>
+      <c r="D28" s="9">
+        <v>9893.2999999999993</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
-        <v>1995</v>
-      </c>
-      <c r="B2" s="12">
-        <v>70470.100000000006</v>
-      </c>
-      <c r="C2" s="12">
-        <v>61032</v>
-      </c>
-      <c r="D2" s="12">
-        <v>9438.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>1996</v>
-      </c>
-      <c r="B3" s="14">
-        <v>68293.3</v>
-      </c>
-      <c r="C3" s="14">
-        <v>58328.4</v>
-      </c>
-      <c r="D3" s="14">
-        <v>9964.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>1997</v>
-      </c>
-      <c r="B4" s="12">
-        <v>71402.600000000006</v>
-      </c>
-      <c r="C4" s="12">
-        <v>61332</v>
-      </c>
-      <c r="D4" s="12">
-        <v>10070.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>1998</v>
-      </c>
-      <c r="B5" s="14">
-        <v>76265.899999999994</v>
-      </c>
-      <c r="C5" s="14">
-        <v>65634.899999999994</v>
-      </c>
-      <c r="D5" s="14">
-        <v>10631</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>1999</v>
-      </c>
-      <c r="B6" s="12">
-        <v>84465</v>
-      </c>
-      <c r="C6" s="12">
-        <v>73346</v>
-      </c>
-      <c r="D6" s="12">
-        <v>11119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>2000</v>
-      </c>
-      <c r="B7" s="14">
-        <v>83691.100000000006</v>
-      </c>
-      <c r="C7" s="14">
-        <v>72187.7</v>
-      </c>
-      <c r="D7" s="14">
-        <v>11503.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>2001</v>
-      </c>
-      <c r="B8" s="12">
-        <v>83571</v>
-      </c>
-      <c r="C8" s="12">
-        <v>71847.7</v>
-      </c>
-      <c r="D8" s="12">
-        <v>11723.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>2002</v>
-      </c>
-      <c r="B9" s="14">
-        <v>87895.3</v>
-      </c>
-      <c r="C9" s="14">
-        <v>75788.600000000006</v>
-      </c>
-      <c r="D9" s="14">
-        <v>12106.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>2003</v>
-      </c>
-      <c r="B10" s="12">
-        <v>83113.3</v>
-      </c>
-      <c r="C10" s="12">
-        <v>71011.199999999997</v>
-      </c>
-      <c r="D10" s="12">
-        <v>12102.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>2004</v>
-      </c>
-      <c r="B11" s="14">
-        <v>86678.1</v>
-      </c>
-      <c r="C11" s="14">
-        <v>74536.800000000003</v>
-      </c>
-      <c r="D11" s="14">
-        <v>12141.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>2005</v>
-      </c>
-      <c r="B12" s="12">
-        <v>88914.4</v>
-      </c>
-      <c r="C12" s="12">
-        <v>76884.5</v>
-      </c>
-      <c r="D12" s="12">
-        <v>12029.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
-        <v>2006</v>
-      </c>
-      <c r="B13" s="14">
-        <v>84339.5</v>
-      </c>
-      <c r="C13" s="14">
-        <v>72494.899999999994</v>
-      </c>
-      <c r="D13" s="14">
-        <v>11844.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <v>2007</v>
-      </c>
-      <c r="B14" s="12">
-        <v>82174.600000000006</v>
-      </c>
-      <c r="C14" s="12">
-        <v>70502.8</v>
-      </c>
-      <c r="D14" s="12">
-        <v>11671.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
-        <v>2008</v>
-      </c>
-      <c r="B15" s="14">
-        <v>79970.8</v>
-      </c>
-      <c r="C15" s="14">
-        <v>68519.199999999997</v>
-      </c>
-      <c r="D15" s="14">
-        <v>11451.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <v>2009</v>
-      </c>
-      <c r="B16" s="12">
-        <v>76807.5</v>
-      </c>
-      <c r="C16" s="12">
-        <v>65293</v>
-      </c>
-      <c r="D16" s="12">
-        <v>11514.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
-        <v>2010</v>
-      </c>
-      <c r="B17" s="14">
-        <v>72401.100000000006</v>
-      </c>
-      <c r="C17" s="14">
-        <v>60688.5</v>
-      </c>
-      <c r="D17" s="14">
-        <v>11712.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
-        <v>2011</v>
-      </c>
-      <c r="B18" s="12">
-        <v>70971.5</v>
-      </c>
-      <c r="C18" s="12">
-        <v>60153.599999999999</v>
-      </c>
-      <c r="D18" s="12">
-        <v>10817.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
-        <v>2012</v>
-      </c>
-      <c r="B19" s="14">
-        <v>69325.600000000006</v>
-      </c>
-      <c r="C19" s="14">
-        <v>59136.4</v>
-      </c>
-      <c r="D19" s="14">
-        <v>10189.200000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
-        <v>2013</v>
-      </c>
-      <c r="B20" s="12">
-        <v>67273.100000000006</v>
-      </c>
-      <c r="C20" s="12">
-        <v>57236</v>
-      </c>
-      <c r="D20" s="12">
-        <v>10037.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
-        <v>2014</v>
-      </c>
-      <c r="B21" s="14">
-        <v>67136.5</v>
-      </c>
-      <c r="C21" s="14">
-        <v>57136</v>
-      </c>
-      <c r="D21" s="14">
-        <v>10000.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
-        <v>2015</v>
-      </c>
-      <c r="B22" s="12">
-        <v>71151</v>
-      </c>
-      <c r="C22" s="12">
-        <v>61224.3</v>
-      </c>
-      <c r="D22" s="12">
-        <v>9926.7000000000007</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
-        <v>2016</v>
-      </c>
-      <c r="B23" s="14">
-        <v>69060.600000000006</v>
-      </c>
-      <c r="C23" s="14">
-        <v>59015.4</v>
-      </c>
-      <c r="D23" s="14">
-        <v>10045.200000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
-        <v>2017</v>
-      </c>
-      <c r="B24" s="12">
-        <v>74284.3</v>
-      </c>
-      <c r="C24" s="12">
-        <v>64166.7</v>
-      </c>
-      <c r="D24" s="12">
-        <v>10117.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
-        <v>2018</v>
-      </c>
-      <c r="B25" s="14">
-        <v>71091.7</v>
-      </c>
-      <c r="C25" s="14">
-        <v>60762.8</v>
-      </c>
-      <c r="D25" s="14">
-        <v>10328.9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
-        <v>2019</v>
-      </c>
-      <c r="B26" s="12">
-        <v>67878.2</v>
-      </c>
-      <c r="C26" s="12">
-        <v>57044.4</v>
-      </c>
-      <c r="D26" s="12">
-        <v>10833.8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
-        <v>2020</v>
-      </c>
-      <c r="B27" s="14">
-        <v>59475.5</v>
-      </c>
-      <c r="C27" s="14">
-        <v>49531.3</v>
-      </c>
-      <c r="D27" s="14">
-        <v>9944.2000000000007</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
-        <v>2021</v>
-      </c>
-      <c r="B28" s="12">
-        <v>58550.3</v>
-      </c>
-      <c r="C28" s="12">
-        <v>48657</v>
-      </c>
-      <c r="D28" s="12">
-        <v>9893.2999999999993</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>7</v>
+      <c r="B30" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1366,309 +1391,325 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H1" s="8"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="7.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+    </row>
+    <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="B16" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" ht="154.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" ht="154.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="1:8" ht="403.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
+      <c r="B19" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" ht="403.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:8" ht="154.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+    </row>
+    <row r="24" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" ht="154.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="24" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+      <c r="C24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="D24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="E24" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="F24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="G24" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="20" t="s">
+      <c r="D25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="E25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="F25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
     </row>
     <row r="30" spans="1:8" ht="1.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
-        <v>6</v>
+      <c r="A31" s="12" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:H18"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="B19:D19"/>
@@ -1676,22 +1717,6 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="A22:H22"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
